--- a/Terminplanung M.Treff.xlsx
+++ b/Terminplanung M.Treff.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="192">
   <si>
     <t>Neujahr</t>
   </si>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t>Mentoring Demler</t>
+  </si>
+  <si>
+    <t>Assi Vertr.</t>
   </si>
 </sst>
 </file>
@@ -2745,23 +2748,23 @@
     <xf numFmtId="0" fontId="12" fillId="25" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8658,38 +8661,38 @@
       <selection activeCell="V14" sqref="V14:X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" customWidth="1"/>
-    <col min="18" max="21" width="11.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="1" customWidth="1"/>
-    <col min="23" max="24" width="11.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="11.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="11.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" style="1" customWidth="1"/>
-    <col min="34" max="36" width="11.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" style="1" customWidth="1"/>
-    <col min="38" max="40" width="11.7109375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="11.28515625" style="1" customWidth="1"/>
-    <col min="42" max="44" width="11.7109375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="11.7109375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="0.140625" style="1" customWidth="1"/>
-    <col min="50" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" style="1" customWidth="1"/>
+    <col min="18" max="21" width="11.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="11.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="11.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="11.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" style="1" customWidth="1"/>
+    <col min="34" max="36" width="11.6640625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="11.33203125" style="1" customWidth="1"/>
+    <col min="38" max="40" width="11.6640625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.33203125" style="1" customWidth="1"/>
+    <col min="42" max="44" width="11.6640625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="11.6640625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="0.109375" style="1" customWidth="1"/>
+    <col min="50" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>42005</v>
       </c>
@@ -8764,7 +8767,7 @@
       <c r="AV1" s="11"/>
       <c r="AW1" s="12"/>
     </row>
-    <row r="2" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>42370</v>
       </c>
@@ -8853,7 +8856,7 @@
       <c r="AV2" s="397"/>
       <c r="AW2" s="4"/>
     </row>
-    <row r="3" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="105">
         <v>42371</v>
       </c>
@@ -8936,7 +8939,7 @@
       <c r="AV3" s="397"/>
       <c r="AW3" s="4"/>
     </row>
-    <row r="4" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="105">
         <v>42372</v>
       </c>
@@ -9017,7 +9020,7 @@
       <c r="AV4" s="384"/>
       <c r="AW4" s="4"/>
     </row>
-    <row r="5" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="158">
         <v>42373</v>
       </c>
@@ -9096,7 +9099,7 @@
       <c r="AV5" s="396"/>
       <c r="AW5" s="4"/>
     </row>
-    <row r="6" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="158">
         <v>42374</v>
       </c>
@@ -9181,7 +9184,7 @@
       <c r="AV6" s="381"/>
       <c r="AW6" s="4"/>
     </row>
-    <row r="7" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="159">
         <v>42375</v>
       </c>
@@ -9268,7 +9271,7 @@
       <c r="AV7" s="57"/>
       <c r="AW7" s="6"/>
     </row>
-    <row r="8" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="54">
         <v>42376</v>
       </c>
@@ -9351,7 +9354,7 @@
       <c r="AV8" s="347"/>
       <c r="AW8" s="4"/>
     </row>
-    <row r="9" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="54">
         <v>42377</v>
       </c>
@@ -9436,7 +9439,7 @@
       <c r="AV9" s="403"/>
       <c r="AW9" s="4"/>
     </row>
-    <row r="10" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="105">
         <v>42378</v>
       </c>
@@ -9525,7 +9528,7 @@
       <c r="AV10" s="303"/>
       <c r="AW10" s="4"/>
     </row>
-    <row r="11" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="105">
         <v>42379</v>
       </c>
@@ -9614,7 +9617,7 @@
       <c r="AV11" s="404"/>
       <c r="AW11" s="4"/>
     </row>
-    <row r="12" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="54">
         <v>42380</v>
       </c>
@@ -9696,7 +9699,7 @@
       <c r="AV12" s="345"/>
       <c r="AW12" s="4"/>
     </row>
-    <row r="13" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="54">
         <v>42381</v>
       </c>
@@ -9779,7 +9782,7 @@
       <c r="AV13" s="303"/>
       <c r="AW13" s="4"/>
     </row>
-    <row r="14" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="54">
         <v>42382</v>
       </c>
@@ -9864,7 +9867,7 @@
       <c r="AV14" s="57"/>
       <c r="AW14" s="6"/>
     </row>
-    <row r="15" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="54">
         <v>42383</v>
       </c>
@@ -9951,7 +9954,7 @@
       <c r="AV15" s="43"/>
       <c r="AW15" s="4"/>
     </row>
-    <row r="16" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="54">
         <v>42384</v>
       </c>
@@ -10036,7 +10039,7 @@
       <c r="AV16" s="295"/>
       <c r="AW16" s="4"/>
     </row>
-    <row r="17" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="105">
         <v>42385</v>
       </c>
@@ -10123,7 +10126,7 @@
       <c r="AV17" s="388"/>
       <c r="AW17" s="4"/>
     </row>
-    <row r="18" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="105">
         <v>42386</v>
       </c>
@@ -10203,7 +10206,7 @@
       <c r="AV18" s="400"/>
       <c r="AW18" s="4"/>
     </row>
-    <row r="19" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="54">
         <v>42387</v>
       </c>
@@ -10288,7 +10291,7 @@
       <c r="AV19" s="401"/>
       <c r="AW19" s="4"/>
     </row>
-    <row r="20" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="54">
         <v>42388</v>
       </c>
@@ -10373,7 +10376,7 @@
       <c r="AV20" s="305"/>
       <c r="AW20" s="306"/>
     </row>
-    <row r="21" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="54">
         <v>42389</v>
       </c>
@@ -10456,7 +10459,7 @@
       <c r="AV21" s="398"/>
       <c r="AW21" s="6"/>
     </row>
-    <row r="22" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="54">
         <v>42390</v>
       </c>
@@ -10539,7 +10542,7 @@
       <c r="AV22" s="57"/>
       <c r="AW22" s="4"/>
     </row>
-    <row r="23" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="54">
         <v>42391</v>
       </c>
@@ -10626,7 +10629,7 @@
       <c r="AV23" s="393"/>
       <c r="AW23" s="394"/>
     </row>
-    <row r="24" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="105">
         <v>42392</v>
       </c>
@@ -10715,7 +10718,7 @@
       <c r="AV24" s="339"/>
       <c r="AW24" s="50"/>
     </row>
-    <row r="25" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="105">
         <v>42393</v>
       </c>
@@ -10802,7 +10805,7 @@
       <c r="AV25" s="380"/>
       <c r="AW25" s="97"/>
     </row>
-    <row r="26" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="54">
         <v>42394</v>
       </c>
@@ -10891,7 +10894,7 @@
       <c r="AV26" s="391"/>
       <c r="AW26" s="392"/>
     </row>
-    <row r="27" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="54">
         <v>42395</v>
       </c>
@@ -10977,7 +10980,7 @@
       <c r="AV27" s="382"/>
       <c r="AW27" s="383"/>
     </row>
-    <row r="28" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="54">
         <v>42396</v>
       </c>
@@ -11062,7 +11065,7 @@
       <c r="AV28" s="300"/>
       <c r="AW28" s="50"/>
     </row>
-    <row r="29" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="54">
         <v>42397</v>
       </c>
@@ -11145,7 +11148,7 @@
       <c r="AV29" s="335"/>
       <c r="AW29" s="50"/>
     </row>
-    <row r="30" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="54">
         <v>42398</v>
       </c>
@@ -11232,7 +11235,7 @@
       <c r="AV30" s="335"/>
       <c r="AW30" s="50"/>
     </row>
-    <row r="31" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:49" ht="51.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="105">
         <v>42399</v>
       </c>
@@ -11319,7 +11322,7 @@
       <c r="AV31" s="49"/>
       <c r="AW31" s="50"/>
     </row>
-    <row r="32" spans="1:49" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:49" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="165">
         <v>42400</v>
       </c>
@@ -11390,7 +11393,7 @@
       <c r="AV32" s="174"/>
       <c r="AW32" s="51"/>
     </row>
-    <row r="33" spans="1:50" s="19" customFormat="1" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" s="19" customFormat="1" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="332"/>
       <c r="B33" s="332"/>
       <c r="C33" s="332"/>
@@ -11442,7 +11445,7 @@
       <c r="AW33" s="20"/>
       <c r="AX33" s="21"/>
     </row>
-    <row r="34" spans="1:50" s="18" customFormat="1" ht="51.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:50" s="18" customFormat="1" ht="51.6" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="13"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -11494,7 +11497,7 @@
       <c r="AW34" s="30"/>
       <c r="AX34" s="31"/>
     </row>
-    <row r="35" spans="1:50" s="18" customFormat="1" ht="51.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:50" s="18" customFormat="1" ht="51.6" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="13"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11546,7 +11549,7 @@
       <c r="AW35" s="30"/>
       <c r="AX35" s="31"/>
     </row>
-    <row r="36" spans="1:50" s="18" customFormat="1" ht="51.6" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:50" s="18" customFormat="1" ht="51.6" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="13"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -11598,7 +11601,7 @@
       <c r="AW36" s="30"/>
       <c r="AX36" s="31"/>
     </row>
-    <row r="37" spans="1:50" s="18" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:50" s="18" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="321"/>
       <c r="B37" s="322"/>
       <c r="C37" s="322"/>
@@ -11650,7 +11653,7 @@
       <c r="AW37" s="181"/>
       <c r="AX37" s="31"/>
     </row>
-    <row r="38" spans="1:50" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -11702,7 +11705,7 @@
       <c r="AW38" s="37"/>
       <c r="AX38" s="38"/>
     </row>
-    <row r="39" spans="1:50" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:50" ht="21" x14ac:dyDescent="0.4">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="37"/>
@@ -11754,7 +11757,7 @@
       <c r="AW39" s="39"/>
       <c r="AX39" s="38"/>
     </row>
-    <row r="40" spans="1:50" ht="21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:50" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="37"/>
@@ -11806,7 +11809,7 @@
       <c r="AW40" s="39"/>
       <c r="AX40" s="38"/>
     </row>
-    <row r="41" spans="1:50" ht="21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" ht="21" x14ac:dyDescent="0.4">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="186"/>
@@ -11858,7 +11861,7 @@
       <c r="AW41" s="38"/>
       <c r="AX41" s="38"/>
     </row>
-    <row r="42" spans="1:50" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" ht="21" x14ac:dyDescent="0.4">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="186"/>
@@ -11910,7 +11913,7 @@
       <c r="AW42" s="38"/>
       <c r="AX42" s="38"/>
     </row>
-    <row r="43" spans="1:50" ht="21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:50" ht="21" x14ac:dyDescent="0.4">
       <c r="A43" s="38"/>
       <c r="B43" s="187"/>
       <c r="C43" s="186"/>
@@ -11962,7 +11965,7 @@
       <c r="AW43" s="38"/>
       <c r="AX43" s="38"/>
     </row>
-    <row r="44" spans="1:50" ht="21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:50" ht="21" x14ac:dyDescent="0.4">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="186"/>
@@ -11972,7 +11975,7 @@
       <c r="G44" s="186"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:50" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:50" ht="21" x14ac:dyDescent="0.4">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="186"/>
@@ -11982,7 +11985,7 @@
       <c r="G45" s="186"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:50" ht="21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" ht="21" x14ac:dyDescent="0.4">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="186"/>
@@ -11992,7 +11995,7 @@
       <c r="G46" s="186"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:50" ht="21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" ht="21" x14ac:dyDescent="0.4">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="186"/>
@@ -12002,7 +12005,7 @@
       <c r="G47" s="186"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:50" ht="21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:50" ht="21" x14ac:dyDescent="0.4">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="186"/>
@@ -12012,7 +12015,7 @@
       <c r="G48" s="186"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="186"/>
@@ -12022,7 +12025,7 @@
       <c r="G49" s="186"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="188"/>
@@ -12032,37 +12035,37 @@
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="54" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="42.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="244">
     <mergeCell ref="AE6:AF6"/>
@@ -12328,9 +12331,9 @@
       <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:48" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A1" s="210" t="s">
         <v>45</v>
       </c>
@@ -12382,7 +12385,7 @@
       <c r="AU1" s="210"/>
       <c r="AV1" s="210"/>
     </row>
-    <row r="2" spans="1:48" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -12456,7 +12459,7 @@
       <c r="AU2" s="9"/>
       <c r="AV2" s="9"/>
     </row>
-    <row r="3" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="220">
         <v>1</v>
       </c>
@@ -12588,7 +12591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="216">
         <v>2</v>
       </c>
@@ -12716,7 +12719,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="216">
         <v>3</v>
       </c>
@@ -12844,7 +12847,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="216">
         <v>4</v>
       </c>
@@ -12970,7 +12973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="216">
         <v>5</v>
       </c>
@@ -13096,7 +13099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="220">
         <v>6</v>
       </c>
@@ -13226,7 +13229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="254">
         <v>7</v>
       </c>
@@ -13356,7 +13359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="254">
         <v>8</v>
       </c>
@@ -13482,7 +13485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="216">
         <v>9</v>
       </c>
@@ -13608,7 +13611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="216">
         <v>10</v>
       </c>
@@ -13732,7 +13735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="216">
         <v>11</v>
       </c>
@@ -13854,7 +13857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="216">
         <v>12</v>
       </c>
@@ -13980,7 +13983,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="216">
         <v>13</v>
       </c>
@@ -14106,7 +14109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="254">
         <v>14</v>
       </c>
@@ -14230,7 +14233,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="254">
         <v>15</v>
       </c>
@@ -14356,7 +14359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="216">
         <v>16</v>
       </c>
@@ -14486,7 +14489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="216">
         <v>17</v>
       </c>
@@ -14620,7 +14623,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="216">
         <v>18</v>
       </c>
@@ -14748,7 +14751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="216">
         <v>19</v>
       </c>
@@ -14874,7 +14877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="216">
         <v>20</v>
       </c>
@@ -14994,7 +14997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="254">
         <v>21</v>
       </c>
@@ -15118,7 +15121,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="254">
         <v>22</v>
       </c>
@@ -15240,7 +15243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="216">
         <v>23</v>
       </c>
@@ -15366,7 +15369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="216">
         <v>24</v>
       </c>
@@ -15492,7 +15495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="216">
         <v>25</v>
       </c>
@@ -15614,7 +15617,7 @@
       </c>
       <c r="AV27" s="429"/>
     </row>
-    <row r="28" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="216">
         <v>26</v>
       </c>
@@ -15736,7 +15739,7 @@
       </c>
       <c r="AV28" s="429"/>
     </row>
-    <row r="29" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="216">
         <v>27</v>
       </c>
@@ -15862,7 +15865,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="254">
         <v>28</v>
       </c>
@@ -15988,7 +15991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="254">
         <v>29</v>
       </c>
@@ -16112,7 +16115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="216">
         <v>30</v>
       </c>
@@ -16232,7 +16235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="216">
         <v>31</v>
       </c>
@@ -16324,7 +16327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="W39" s="265"/>
     </row>
   </sheetData>
@@ -16659,9 +16662,9 @@
       <selection activeCell="AU11" sqref="AU11:AV11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:54" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A1" s="210" t="s">
         <v>113</v>
       </c>
@@ -16713,7 +16716,7 @@
       <c r="AU1" s="210"/>
       <c r="AV1" s="210"/>
     </row>
-    <row r="2" spans="1:54" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -16787,7 +16790,7 @@
       <c r="AU2" s="9"/>
       <c r="AV2" s="9"/>
     </row>
-    <row r="3" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="218">
         <v>1</v>
       </c>
@@ -16899,7 +16902,7 @@
       <c r="AU3" s="420"/>
       <c r="AV3" s="421"/>
     </row>
-    <row r="4" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="216">
         <v>2</v>
       </c>
@@ -17013,7 +17016,7 @@
       <c r="AU4" s="420"/>
       <c r="AV4" s="421"/>
     </row>
-    <row r="5" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="216">
         <v>3</v>
       </c>
@@ -17127,7 +17130,7 @@
       <c r="AU5" s="432"/>
       <c r="AV5" s="433"/>
     </row>
-    <row r="6" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="216">
         <v>4</v>
       </c>
@@ -17235,7 +17238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="216">
         <v>5</v>
       </c>
@@ -17341,7 +17344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="218">
         <v>6</v>
       </c>
@@ -17457,7 +17460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="254">
         <v>7</v>
       </c>
@@ -17577,7 +17580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="275">
         <v>8</v>
       </c>
@@ -17687,7 +17690,7 @@
       </c>
       <c r="AV10" s="421"/>
     </row>
-    <row r="11" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="216">
         <v>9</v>
       </c>
@@ -17803,7 +17806,7 @@
       </c>
       <c r="AV11" s="421"/>
     </row>
-    <row r="12" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="216">
         <v>10</v>
       </c>
@@ -17917,7 +17920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="216">
         <v>11</v>
       </c>
@@ -18035,7 +18038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="216">
         <v>12</v>
       </c>
@@ -18155,7 +18158,7 @@
       <c r="BA14" s="432"/>
       <c r="BB14" s="433"/>
     </row>
-    <row r="15" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="254">
         <v>13</v>
       </c>
@@ -18275,7 +18278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="254">
         <v>14</v>
       </c>
@@ -18389,7 +18392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="275">
         <v>15</v>
       </c>
@@ -18509,7 +18512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="216">
         <v>16</v>
       </c>
@@ -18621,7 +18624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="216">
         <v>17</v>
       </c>
@@ -18733,7 +18736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="216">
         <v>18</v>
       </c>
@@ -18847,7 +18850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="216">
         <v>19</v>
       </c>
@@ -18965,7 +18968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="254">
         <v>20</v>
       </c>
@@ -19091,7 +19094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="254">
         <v>21</v>
       </c>
@@ -19213,7 +19216,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="275">
         <v>22</v>
       </c>
@@ -19335,7 +19338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="216">
         <v>23</v>
       </c>
@@ -19455,7 +19458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="216">
         <v>24</v>
       </c>
@@ -19573,7 +19576,7 @@
       </c>
       <c r="AV26" s="461"/>
     </row>
-    <row r="27" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="216">
         <v>25</v>
       </c>
@@ -19693,7 +19696,7 @@
       </c>
       <c r="AV27" s="471"/>
     </row>
-    <row r="28" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="216">
         <v>26</v>
       </c>
@@ -19813,7 +19816,7 @@
       </c>
       <c r="AV28" s="471"/>
     </row>
-    <row r="29" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="254">
         <v>27</v>
       </c>
@@ -19933,7 +19936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="254">
         <v>28</v>
       </c>
@@ -20051,7 +20054,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="275">
         <v>29</v>
       </c>
@@ -20159,7 +20162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="216">
         <v>30</v>
       </c>
@@ -20269,7 +20272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="216">
         <v>31</v>
       </c>
@@ -20719,13 +20722,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AU7" sqref="AU7:AV7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3:AR5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:48" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A1" s="210" t="s">
         <v>156</v>
       </c>
@@ -20777,7 +20780,7 @@
       <c r="AU1" s="210"/>
       <c r="AV1" s="210"/>
     </row>
-    <row r="2" spans="1:48" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -20851,7 +20854,7 @@
       <c r="AU2" s="9"/>
       <c r="AV2" s="9"/>
     </row>
-    <row r="3" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A3" s="218">
         <v>1</v>
       </c>
@@ -20955,7 +20958,7 @@
       <c r="AU3" s="420"/>
       <c r="AV3" s="421"/>
     </row>
-    <row r="4" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A4" s="216">
         <v>2</v>
       </c>
@@ -21059,7 +21062,7 @@
       <c r="AU4" s="478"/>
       <c r="AV4" s="479"/>
     </row>
-    <row r="5" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A5" s="216">
         <v>3</v>
       </c>
@@ -21108,10 +21111,10 @@
       <c r="V5" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="W5" s="492" t="s">
+      <c r="W5" s="490" t="s">
         <v>176</v>
       </c>
-      <c r="X5" s="493"/>
+      <c r="X5" s="491"/>
       <c r="Y5" s="216">
         <v>3</v>
       </c>
@@ -21161,7 +21164,7 @@
       <c r="AU5" s="478"/>
       <c r="AV5" s="479"/>
     </row>
-    <row r="6" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A6" s="216">
         <v>4</v>
       </c>
@@ -21261,7 +21264,7 @@
       <c r="AU6" s="478"/>
       <c r="AV6" s="479"/>
     </row>
-    <row r="7" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A7" s="254">
         <v>5</v>
       </c>
@@ -21358,12 +21361,12 @@
       <c r="AT7" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="AU7" s="492" t="s">
+      <c r="AU7" s="490" t="s">
         <v>173</v>
       </c>
-      <c r="AV7" s="493"/>
+      <c r="AV7" s="491"/>
     </row>
-    <row r="8" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="218">
         <v>6</v>
       </c>
@@ -21410,10 +21413,10 @@
       <c r="V8" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="W8" s="492" t="s">
+      <c r="W8" s="490" t="s">
         <v>168</v>
       </c>
-      <c r="X8" s="493"/>
+      <c r="X8" s="491"/>
       <c r="Y8" s="254">
         <v>6</v>
       </c>
@@ -21465,7 +21468,7 @@
       <c r="AU8" s="478"/>
       <c r="AV8" s="479"/>
     </row>
-    <row r="9" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A9" s="216">
         <v>7</v>
       </c>
@@ -21540,7 +21543,9 @@
       <c r="AH9" s="255" t="s">
         <v>61</v>
       </c>
-      <c r="AI9" s="420"/>
+      <c r="AI9" s="420" t="s">
+        <v>29</v>
+      </c>
       <c r="AJ9" s="421"/>
       <c r="AK9" s="216">
         <v>7</v>
@@ -21556,10 +21561,6 @@
       <c r="AP9" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="AQ9" s="492" t="s">
-        <v>178</v>
-      </c>
-      <c r="AR9" s="493"/>
       <c r="AS9" s="254">
         <v>7</v>
       </c>
@@ -21569,7 +21570,7 @@
       <c r="AU9" s="420"/>
       <c r="AV9" s="421"/>
     </row>
-    <row r="10" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="216">
         <v>8</v>
       </c>
@@ -21642,7 +21643,9 @@
       <c r="AH10" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="AI10" s="420"/>
+      <c r="AI10" s="420" t="s">
+        <v>29</v>
+      </c>
       <c r="AJ10" s="421"/>
       <c r="AK10" s="216">
         <v>8</v>
@@ -21669,7 +21672,7 @@
       <c r="AU10" s="420"/>
       <c r="AV10" s="421"/>
     </row>
-    <row r="11" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="216">
         <v>9</v>
       </c>
@@ -21712,10 +21715,10 @@
       <c r="R11" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="492" t="s">
+      <c r="S11" s="490" t="s">
         <v>167</v>
       </c>
-      <c r="T11" s="493"/>
+      <c r="T11" s="491"/>
       <c r="U11" s="254">
         <v>9</v>
       </c>
@@ -21773,7 +21776,7 @@
       <c r="AU11" s="438"/>
       <c r="AV11" s="439"/>
     </row>
-    <row r="12" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A12" s="216">
         <v>10</v>
       </c>
@@ -21875,7 +21878,7 @@
       <c r="AU12" s="432"/>
       <c r="AV12" s="433"/>
     </row>
-    <row r="13" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="216">
         <v>11</v>
       </c>
@@ -21930,10 +21933,10 @@
       <c r="Z13" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="AA13" s="492" t="s">
+      <c r="AA13" s="490" t="s">
         <v>177</v>
       </c>
-      <c r="AB13" s="493"/>
+      <c r="AB13" s="491"/>
       <c r="AC13" s="254">
         <v>11</v>
       </c>
@@ -21975,7 +21978,7 @@
       <c r="AU13" s="284"/>
       <c r="AV13" s="217"/>
     </row>
-    <row r="14" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A14" s="254">
         <v>12</v>
       </c>
@@ -21990,10 +21993,10 @@
       <c r="F14" s="214" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="488" t="s">
+      <c r="G14" s="492" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="489"/>
+      <c r="H14" s="493"/>
       <c r="I14" s="216">
         <v>12</v>
       </c>
@@ -22079,7 +22082,7 @@
       <c r="AU14" s="432"/>
       <c r="AV14" s="433"/>
     </row>
-    <row r="15" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="254">
         <v>13</v>
       </c>
@@ -22120,10 +22123,10 @@
       <c r="R15" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="S15" s="492" t="s">
+      <c r="S15" s="490" t="s">
         <v>174</v>
       </c>
-      <c r="T15" s="493"/>
+      <c r="T15" s="491"/>
       <c r="U15" s="216">
         <v>13</v>
       </c>
@@ -22183,7 +22186,7 @@
       <c r="AU15" s="432"/>
       <c r="AV15" s="433"/>
     </row>
-    <row r="16" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="216">
         <v>14</v>
       </c>
@@ -22252,8 +22255,10 @@
       <c r="AD16" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="AE16" s="422"/>
-      <c r="AF16" s="423"/>
+      <c r="AE16" s="460" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF16" s="461"/>
       <c r="AG16" s="254">
         <v>14</v>
       </c>
@@ -22287,7 +22292,7 @@
       <c r="AU16" s="420"/>
       <c r="AV16" s="421"/>
     </row>
-    <row r="17" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A17" s="216">
         <v>15</v>
       </c>
@@ -22356,8 +22361,10 @@
       <c r="AD17" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="AE17" s="432"/>
-      <c r="AF17" s="433"/>
+      <c r="AE17" s="460" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF17" s="461"/>
       <c r="AG17" s="254">
         <v>15</v>
       </c>
@@ -22372,8 +22379,8 @@
       <c r="AL17" s="214" t="s">
         <v>65</v>
       </c>
-      <c r="AM17" s="432"/>
-      <c r="AN17" s="433"/>
+      <c r="AM17" s="438"/>
+      <c r="AN17" s="439"/>
       <c r="AO17" s="216">
         <v>15</v>
       </c>
@@ -22391,7 +22398,7 @@
       <c r="AU17" s="420"/>
       <c r="AV17" s="421"/>
     </row>
-    <row r="18" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="216">
         <v>16</v>
       </c>
@@ -22462,8 +22469,10 @@
       <c r="AD18" s="214" t="s">
         <v>66</v>
       </c>
-      <c r="AE18" s="432"/>
-      <c r="AF18" s="433"/>
+      <c r="AE18" s="460" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF18" s="461"/>
       <c r="AG18" s="216">
         <v>16</v>
       </c>
@@ -22478,8 +22487,8 @@
       <c r="AL18" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="AM18" s="284"/>
-      <c r="AN18" s="217"/>
+      <c r="AM18" s="438"/>
+      <c r="AN18" s="439"/>
       <c r="AO18" s="254">
         <v>16</v>
       </c>
@@ -22494,10 +22503,10 @@
       <c r="AT18" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="AU18" s="438"/>
-      <c r="AV18" s="439"/>
+      <c r="AU18" s="460"/>
+      <c r="AV18" s="461"/>
     </row>
-    <row r="19" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="216">
         <v>17</v>
       </c>
@@ -22564,8 +22573,10 @@
       <c r="AD19" s="255" t="s">
         <v>61</v>
       </c>
-      <c r="AE19" s="420"/>
-      <c r="AF19" s="421"/>
+      <c r="AE19" s="442" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF19" s="443"/>
       <c r="AG19" s="216">
         <v>17</v>
       </c>
@@ -22580,6 +22591,8 @@
       <c r="AL19" s="214" t="s">
         <v>64</v>
       </c>
+      <c r="AM19" s="438"/>
+      <c r="AN19" s="439"/>
       <c r="AO19" s="254">
         <v>17</v>
       </c>
@@ -22594,10 +22607,10 @@
       <c r="AT19" s="214" t="s">
         <v>65</v>
       </c>
-      <c r="AU19" s="432"/>
-      <c r="AV19" s="433"/>
+      <c r="AU19" s="460"/>
+      <c r="AV19" s="461"/>
     </row>
-    <row r="20" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="216">
         <v>18</v>
       </c>
@@ -22664,24 +22677,28 @@
       <c r="AD20" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="AE20" s="420"/>
-      <c r="AF20" s="421"/>
+      <c r="AE20" s="442" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF20" s="443"/>
       <c r="AG20" s="216">
         <v>18</v>
       </c>
       <c r="AH20" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="AI20" s="432"/>
-      <c r="AJ20" s="433"/>
+      <c r="AI20" s="490" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ20" s="491"/>
       <c r="AK20" s="216">
         <v>18</v>
       </c>
       <c r="AL20" s="214" t="s">
         <v>66</v>
       </c>
-      <c r="AM20" s="432"/>
-      <c r="AN20" s="433"/>
+      <c r="AM20" s="438"/>
+      <c r="AN20" s="439"/>
       <c r="AO20" s="216">
         <v>18</v>
       </c>
@@ -22696,10 +22713,10 @@
       <c r="AT20" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="AU20" s="284"/>
-      <c r="AV20" s="217"/>
+      <c r="AU20" s="460"/>
+      <c r="AV20" s="461"/>
     </row>
-    <row r="21" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A21" s="254">
         <v>19</v>
       </c>
@@ -22764,8 +22781,10 @@
       <c r="AD21" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="AE21" s="438"/>
-      <c r="AF21" s="439"/>
+      <c r="AE21" s="460" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF21" s="461"/>
       <c r="AG21" s="216">
         <v>19</v>
       </c>
@@ -22796,10 +22815,10 @@
       <c r="AT21" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="AU21" s="432"/>
-      <c r="AV21" s="433"/>
+      <c r="AU21" s="460"/>
+      <c r="AV21" s="461"/>
     </row>
-    <row r="22" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A22" s="254">
         <v>20</v>
       </c>
@@ -22866,8 +22885,10 @@
       <c r="AD22" s="214" t="s">
         <v>65</v>
       </c>
-      <c r="AE22" s="432"/>
-      <c r="AF22" s="433"/>
+      <c r="AE22" s="440" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF22" s="441"/>
       <c r="AG22" s="216">
         <v>20</v>
       </c>
@@ -22900,10 +22921,10 @@
       <c r="AT22" s="214" t="s">
         <v>66</v>
       </c>
-      <c r="AU22" s="432"/>
-      <c r="AV22" s="433"/>
+      <c r="AU22" s="460"/>
+      <c r="AV22" s="461"/>
     </row>
-    <row r="23" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A23" s="216">
         <v>21</v>
       </c>
@@ -22972,8 +22993,10 @@
       <c r="AD23" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="AE23" s="284"/>
-      <c r="AF23" s="217"/>
+      <c r="AE23" s="440" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF23" s="441"/>
       <c r="AG23" s="254">
         <v>21</v>
       </c>
@@ -23007,7 +23030,7 @@
       <c r="AU23" s="420"/>
       <c r="AV23" s="421"/>
     </row>
-    <row r="24" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A24" s="216">
         <v>22</v>
       </c>
@@ -23064,20 +23087,20 @@
       <c r="Z24" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="AA24" s="492" t="s">
+      <c r="AA24" s="490" t="s">
         <v>190</v>
       </c>
-      <c r="AB24" s="493"/>
+      <c r="AB24" s="491"/>
       <c r="AC24" s="216">
         <v>22</v>
       </c>
       <c r="AD24" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="AE24" s="492" t="s">
+      <c r="AE24" s="490" t="s">
         <v>190</v>
       </c>
-      <c r="AF24" s="493"/>
+      <c r="AF24" s="491"/>
       <c r="AG24" s="254">
         <v>22</v>
       </c>
@@ -23111,7 +23134,7 @@
       <c r="AU24" s="420"/>
       <c r="AV24" s="421"/>
     </row>
-    <row r="25" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="216">
         <v>23</v>
       </c>
@@ -23215,7 +23238,7 @@
       <c r="AU25" s="460"/>
       <c r="AV25" s="461"/>
     </row>
-    <row r="26" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A26" s="216">
         <v>24</v>
       </c>
@@ -23317,7 +23340,7 @@
       <c r="AU26" s="460"/>
       <c r="AV26" s="461"/>
     </row>
-    <row r="27" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A27" s="216">
         <v>25</v>
       </c>
@@ -23425,7 +23448,7 @@
       <c r="AU27" s="466"/>
       <c r="AV27" s="467"/>
     </row>
-    <row r="28" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A28" s="254">
         <v>26</v>
       </c>
@@ -23496,8 +23519,10 @@
       <c r="AD28" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="AE28" s="478"/>
-      <c r="AF28" s="479"/>
+      <c r="AE28" s="440" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF28" s="441"/>
       <c r="AG28" s="216">
         <v>26</v>
       </c>
@@ -23533,7 +23558,7 @@
       <c r="AU28" s="466"/>
       <c r="AV28" s="467"/>
     </row>
-    <row r="29" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A29" s="254">
         <v>27</v>
       </c>
@@ -23586,10 +23611,10 @@
       <c r="V29" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="W29" s="492" t="s">
+      <c r="W29" s="490" t="s">
         <v>190</v>
       </c>
-      <c r="X29" s="493"/>
+      <c r="X29" s="491"/>
       <c r="Y29" s="254">
         <v>27</v>
       </c>
@@ -23606,8 +23631,10 @@
       <c r="AD29" s="214" t="s">
         <v>65</v>
       </c>
-      <c r="AE29" s="432"/>
-      <c r="AF29" s="433"/>
+      <c r="AE29" s="440" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF29" s="441"/>
       <c r="AG29" s="216">
         <v>27</v>
       </c>
@@ -23643,7 +23670,7 @@
       <c r="AU29" s="460"/>
       <c r="AV29" s="461"/>
     </row>
-    <row r="30" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A30" s="216">
         <v>28</v>
       </c>
@@ -23712,8 +23739,10 @@
       <c r="AD30" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="AE30" s="284"/>
-      <c r="AF30" s="217"/>
+      <c r="AE30" s="440" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF30" s="441"/>
       <c r="AG30" s="254">
         <v>28</v>
       </c>
@@ -23747,7 +23776,7 @@
       <c r="AU30" s="420"/>
       <c r="AV30" s="421"/>
     </row>
-    <row r="31" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A31" s="216">
         <v>29</v>
       </c>
@@ -23808,8 +23837,10 @@
       <c r="AD31" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="AE31" s="432"/>
-      <c r="AF31" s="433"/>
+      <c r="AE31" s="440" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF31" s="441"/>
       <c r="AG31" s="254">
         <v>29</v>
       </c>
@@ -23832,8 +23863,10 @@
       <c r="AP31" s="214" t="s">
         <v>66</v>
       </c>
-      <c r="AQ31" s="478"/>
-      <c r="AR31" s="479"/>
+      <c r="AQ31" s="490" t="s">
+        <v>178</v>
+      </c>
+      <c r="AR31" s="491"/>
       <c r="AS31" s="254">
         <v>29</v>
       </c>
@@ -23843,17 +23876,17 @@
       <c r="AU31" s="420"/>
       <c r="AV31" s="421"/>
     </row>
-    <row r="32" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="216">
         <v>30</v>
       </c>
       <c r="B32" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="490" t="s">
+      <c r="C32" s="488" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="491"/>
+      <c r="D32" s="489"/>
       <c r="E32" s="278"/>
       <c r="F32" s="279"/>
       <c r="G32" s="279"/>
@@ -23906,8 +23939,10 @@
       <c r="AD32" s="214" t="s">
         <v>66</v>
       </c>
-      <c r="AE32" s="432"/>
-      <c r="AF32" s="433"/>
+      <c r="AE32" s="440" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF32" s="441"/>
       <c r="AG32" s="216">
         <v>30</v>
       </c>
@@ -23924,8 +23959,10 @@
       <c r="AL32" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="AM32" s="284"/>
-      <c r="AN32" s="217"/>
+      <c r="AM32" s="490" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN32" s="491"/>
       <c r="AO32" s="254">
         <v>30</v>
       </c>
@@ -23943,7 +23980,7 @@
       <c r="AU32" s="460"/>
       <c r="AV32" s="461"/>
     </row>
-    <row r="33" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A33" s="216">
         <v>31</v>
       </c>
@@ -24025,14 +24062,20 @@
       <c r="AU33" s="460"/>
       <c r="AV33" s="461"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="Y44" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="343">
-    <mergeCell ref="K15:L15"/>
+  <mergeCells count="348">
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="AM3:AN3"/>
@@ -24044,38 +24087,13 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="S4:T4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="AM5:AN5"/>
     <mergeCell ref="AQ5:AR5"/>
     <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AI7:AJ7"/>
     <mergeCell ref="W6:X6"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="AE6:AF6"/>
@@ -24084,13 +24102,64 @@
     <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AM7:AN7"/>
     <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="AU12:AV12"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AI10:AJ10"/>
     <mergeCell ref="AM10:AN10"/>
     <mergeCell ref="AQ10:AR10"/>
     <mergeCell ref="AU10:AV10"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AU11:AV11"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AQ14:AR14"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AQ17:AR17"/>
+    <mergeCell ref="AU17:AV17"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AQ13:AR13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AU7:AV7"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="AU8:AV8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="AM8:AN8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="S9:T9"/>
@@ -24099,17 +24168,14 @@
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AM9:AN9"/>
     <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AU8:AV8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="W13:X13"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="K6:L6"/>
@@ -24119,59 +24185,34 @@
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="W11:X11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AU11:AV11"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AU9:AV9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="W10:X10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="W7:X7"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AQ13:AR13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AQ14:AR14"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AU14:AV14"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="W14:X14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="W12:X12"/>
     <mergeCell ref="AI15:AJ15"/>
     <mergeCell ref="AM15:AN15"/>
     <mergeCell ref="AU15:AV15"/>
@@ -24188,14 +24229,6 @@
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AQ17:AR17"/>
-    <mergeCell ref="AU17:AV17"/>
-    <mergeCell ref="AI16:AJ16"/>
     <mergeCell ref="AM16:AN16"/>
     <mergeCell ref="AQ16:AR16"/>
     <mergeCell ref="AU16:AV16"/>
@@ -24210,10 +24243,32 @@
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="W18:X18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="AU21:AV21"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AQ21:AR21"/>
     <mergeCell ref="AA19:AB19"/>
     <mergeCell ref="AE19:AF19"/>
     <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AU7:AV7"/>
     <mergeCell ref="AQ19:AR19"/>
     <mergeCell ref="AU19:AV19"/>
     <mergeCell ref="AE18:AF18"/>
@@ -24221,12 +24276,12 @@
     <mergeCell ref="AQ18:AR18"/>
     <mergeCell ref="AU18:AV18"/>
     <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AQ20:AR20"/>
-    <mergeCell ref="AU21:AV21"/>
+    <mergeCell ref="AU22:AV22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="O22:P22"/>
@@ -24236,18 +24291,6 @@
     <mergeCell ref="AE22:AF22"/>
     <mergeCell ref="AI22:AJ22"/>
     <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AQ21:AR21"/>
-    <mergeCell ref="AU22:AV22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="S21:T21"/>
     <mergeCell ref="AM23:AN23"/>
     <mergeCell ref="AU24:AV24"/>
     <mergeCell ref="G25:H25"/>
@@ -24281,6 +24324,18 @@
     <mergeCell ref="AI26:AJ26"/>
     <mergeCell ref="AM26:AN26"/>
     <mergeCell ref="AQ26:AR26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="AU26:AV26"/>
     <mergeCell ref="AE25:AF25"/>
     <mergeCell ref="AI25:AJ25"/>
@@ -24292,24 +24347,8 @@
     <mergeCell ref="AM27:AN27"/>
     <mergeCell ref="AQ27:AR27"/>
     <mergeCell ref="AU27:AV27"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AQ28:AR28"/>
-    <mergeCell ref="AU28:AV28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="AE33:AF33"/>
     <mergeCell ref="AI29:AJ29"/>
     <mergeCell ref="AM29:AN29"/>
     <mergeCell ref="AU29:AV29"/>
@@ -24329,6 +24368,9 @@
     <mergeCell ref="AM30:AN30"/>
     <mergeCell ref="AQ30:AR30"/>
     <mergeCell ref="AU30:AV30"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="K33:L33"/>
     <mergeCell ref="AM33:AN33"/>
     <mergeCell ref="AU33:AV33"/>
     <mergeCell ref="K32:L32"/>
@@ -24338,7 +24380,6 @@
     <mergeCell ref="AA32:AB32"/>
     <mergeCell ref="AE32:AF32"/>
     <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AQ31:AR31"/>
     <mergeCell ref="AU31:AV31"/>
     <mergeCell ref="AI32:AJ32"/>
     <mergeCell ref="AQ32:AR32"/>
@@ -24351,30 +24392,31 @@
     <mergeCell ref="AE31:AF31"/>
     <mergeCell ref="AI31:AJ31"/>
     <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="K33:L33"/>
     <mergeCell ref="S33:T33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="S20:T20"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AU20:AV20"/>
     <mergeCell ref="W20:X20"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AQ28:AR28"/>
+    <mergeCell ref="AU28:AV28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S27:T27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AT1" r:id="rId1" display="© www.kalenderpedia.de"/>
@@ -24388,13 +24430,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV33"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25:AB25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:48" ht="52.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A1" s="210" t="s">
         <v>186</v>
       </c>
@@ -24446,7 +24488,7 @@
       <c r="AU1" s="210"/>
       <c r="AV1" s="210"/>
     </row>
-    <row r="2" spans="1:48" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
@@ -24520,7 +24562,7 @@
       <c r="AU2" s="9"/>
       <c r="AV2" s="9"/>
     </row>
-    <row r="3" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="218">
         <v>1</v>
       </c>
@@ -24626,7 +24668,7 @@
       <c r="AU3" s="438"/>
       <c r="AV3" s="439"/>
     </row>
-    <row r="4" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="216">
         <v>2</v>
       </c>
@@ -24724,7 +24766,7 @@
       <c r="AU4" s="478"/>
       <c r="AV4" s="479"/>
     </row>
-    <row r="5" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A5" s="216">
         <v>3</v>
       </c>
@@ -24824,7 +24866,7 @@
       <c r="AU5" s="478"/>
       <c r="AV5" s="479"/>
     </row>
-    <row r="6" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A6" s="254">
         <v>4</v>
       </c>
@@ -24922,7 +24964,7 @@
       <c r="AU6" s="478"/>
       <c r="AV6" s="479"/>
     </row>
-    <row r="7" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A7" s="254">
         <v>5</v>
       </c>
@@ -25020,7 +25062,7 @@
       <c r="AU7" s="420"/>
       <c r="AV7" s="421"/>
     </row>
-    <row r="8" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="218">
         <v>6</v>
       </c>
@@ -25118,7 +25160,7 @@
       <c r="AU8" s="420"/>
       <c r="AV8" s="421"/>
     </row>
-    <row r="9" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="216">
         <v>7</v>
       </c>
@@ -25216,7 +25258,7 @@
       <c r="AU9" s="438"/>
       <c r="AV9" s="439"/>
     </row>
-    <row r="10" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="216">
         <v>8</v>
       </c>
@@ -25314,7 +25356,7 @@
       <c r="AU10" s="438"/>
       <c r="AV10" s="439"/>
     </row>
-    <row r="11" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="216">
         <v>9</v>
       </c>
@@ -25412,7 +25454,7 @@
       <c r="AU11" s="438"/>
       <c r="AV11" s="439"/>
     </row>
-    <row r="12" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A12" s="216">
         <v>10</v>
       </c>
@@ -25510,7 +25552,7 @@
       <c r="AU12" s="432"/>
       <c r="AV12" s="433"/>
     </row>
-    <row r="13" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A13" s="254">
         <v>11</v>
       </c>
@@ -25610,7 +25652,7 @@
       <c r="AU13" s="286"/>
       <c r="AV13" s="217"/>
     </row>
-    <row r="14" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="254">
         <v>12</v>
       </c>
@@ -25708,7 +25750,7 @@
       <c r="AU14" s="420"/>
       <c r="AV14" s="421"/>
     </row>
-    <row r="15" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A15" s="275">
         <v>13</v>
       </c>
@@ -25806,7 +25848,7 @@
       <c r="AU15" s="420"/>
       <c r="AV15" s="421"/>
     </row>
-    <row r="16" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="216">
         <v>14</v>
       </c>
@@ -25904,7 +25946,7 @@
       <c r="AU16" s="438"/>
       <c r="AV16" s="439"/>
     </row>
-    <row r="17" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="216">
         <v>15</v>
       </c>
@@ -25951,8 +25993,8 @@
       <c r="V17" s="276" t="s">
         <v>62</v>
       </c>
-      <c r="W17" s="438"/>
-      <c r="X17" s="439"/>
+      <c r="W17" s="460"/>
+      <c r="X17" s="461"/>
       <c r="Y17" s="216">
         <v>15</v>
       </c>
@@ -26002,7 +26044,7 @@
       <c r="AU17" s="438"/>
       <c r="AV17" s="439"/>
     </row>
-    <row r="18" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A18" s="216">
         <v>16</v>
       </c>
@@ -26049,8 +26091,8 @@
       <c r="V18" s="276" t="s">
         <v>65</v>
       </c>
-      <c r="W18" s="438"/>
-      <c r="X18" s="439"/>
+      <c r="W18" s="460"/>
+      <c r="X18" s="461"/>
       <c r="Y18" s="216">
         <v>16</v>
       </c>
@@ -26100,7 +26142,7 @@
       <c r="AU18" s="438"/>
       <c r="AV18" s="439"/>
     </row>
-    <row r="19" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="216">
         <v>17</v>
       </c>
@@ -26147,8 +26189,8 @@
       <c r="V19" s="276" t="s">
         <v>59</v>
       </c>
-      <c r="W19" s="438"/>
-      <c r="X19" s="439"/>
+      <c r="W19" s="460"/>
+      <c r="X19" s="461"/>
       <c r="Y19" s="216">
         <v>17</v>
       </c>
@@ -26198,7 +26240,7 @@
       <c r="AU19" s="432"/>
       <c r="AV19" s="433"/>
     </row>
-    <row r="20" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="254">
         <v>18</v>
       </c>
@@ -26245,8 +26287,8 @@
       <c r="V20" s="276" t="s">
         <v>64</v>
       </c>
-      <c r="W20" s="432"/>
-      <c r="X20" s="433"/>
+      <c r="W20" s="460"/>
+      <c r="X20" s="461"/>
       <c r="Y20" s="254">
         <v>18</v>
       </c>
@@ -26296,7 +26338,7 @@
       <c r="AU20" s="286"/>
       <c r="AV20" s="217"/>
     </row>
-    <row r="21" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A21" s="254">
         <v>19</v>
       </c>
@@ -26343,8 +26385,8 @@
       <c r="V21" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="W21" s="432"/>
-      <c r="X21" s="433"/>
+      <c r="W21" s="460"/>
+      <c r="X21" s="461"/>
       <c r="Y21" s="254">
         <v>19</v>
       </c>
@@ -26394,7 +26436,7 @@
       <c r="AU21" s="420"/>
       <c r="AV21" s="421"/>
     </row>
-    <row r="22" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="275">
         <v>20</v>
       </c>
@@ -26492,7 +26534,7 @@
       <c r="AU22" s="420"/>
       <c r="AV22" s="421"/>
     </row>
-    <row r="23" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A23" s="216">
         <v>21</v>
       </c>
@@ -26592,7 +26634,7 @@
       <c r="AU23" s="438"/>
       <c r="AV23" s="439"/>
     </row>
-    <row r="24" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A24" s="216">
         <v>22</v>
       </c>
@@ -26639,8 +26681,8 @@
       <c r="V24" s="276" t="s">
         <v>62</v>
       </c>
-      <c r="W24" s="438"/>
-      <c r="X24" s="439"/>
+      <c r="W24" s="460"/>
+      <c r="X24" s="461"/>
       <c r="Y24" s="216">
         <v>22</v>
       </c>
@@ -26690,7 +26732,7 @@
       <c r="AU24" s="438"/>
       <c r="AV24" s="439"/>
     </row>
-    <row r="25" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="216">
         <v>23</v>
       </c>
@@ -26737,8 +26779,8 @@
       <c r="V25" s="276" t="s">
         <v>65</v>
       </c>
-      <c r="W25" s="438"/>
-      <c r="X25" s="439"/>
+      <c r="W25" s="460"/>
+      <c r="X25" s="461"/>
       <c r="Y25" s="216">
         <v>23</v>
       </c>
@@ -26788,7 +26830,7 @@
       <c r="AU25" s="438"/>
       <c r="AV25" s="439"/>
     </row>
-    <row r="26" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A26" s="216">
         <v>24</v>
       </c>
@@ -26835,8 +26877,8 @@
       <c r="V26" s="276" t="s">
         <v>59</v>
       </c>
-      <c r="W26" s="438"/>
-      <c r="X26" s="439"/>
+      <c r="W26" s="460"/>
+      <c r="X26" s="461"/>
       <c r="Y26" s="216">
         <v>24</v>
       </c>
@@ -26886,7 +26928,7 @@
       <c r="AU26" s="438"/>
       <c r="AV26" s="439"/>
     </row>
-    <row r="27" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A27" s="254">
         <v>25</v>
       </c>
@@ -26933,8 +26975,8 @@
       <c r="V27" s="276" t="s">
         <v>64</v>
       </c>
-      <c r="W27" s="438"/>
-      <c r="X27" s="439"/>
+      <c r="W27" s="460"/>
+      <c r="X27" s="461"/>
       <c r="Y27" s="254">
         <v>25</v>
       </c>
@@ -26984,7 +27026,7 @@
       <c r="AU27" s="466"/>
       <c r="AV27" s="467"/>
     </row>
-    <row r="28" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="254">
         <v>26</v>
       </c>
@@ -27031,8 +27073,8 @@
       <c r="V28" s="276" t="s">
         <v>66</v>
       </c>
-      <c r="W28" s="432"/>
-      <c r="X28" s="433"/>
+      <c r="W28" s="460"/>
+      <c r="X28" s="461"/>
       <c r="Y28" s="254">
         <v>26</v>
       </c>
@@ -27082,7 +27124,7 @@
       <c r="AU28" s="466"/>
       <c r="AV28" s="467"/>
     </row>
-    <row r="29" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A29" s="275">
         <v>27</v>
       </c>
@@ -27180,7 +27222,7 @@
       <c r="AU29" s="420"/>
       <c r="AV29" s="421"/>
     </row>
-    <row r="30" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A30" s="216">
         <v>28</v>
       </c>
@@ -27278,7 +27320,7 @@
       <c r="AU30" s="438"/>
       <c r="AV30" s="439"/>
     </row>
-    <row r="31" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A31" s="216">
         <v>29</v>
       </c>
@@ -27376,15 +27418,15 @@
       <c r="AU31" s="438"/>
       <c r="AV31" s="439"/>
     </row>
-    <row r="32" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A32" s="216">
         <v>30</v>
       </c>
       <c r="B32" s="276" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="490"/>
-      <c r="D32" s="491"/>
+      <c r="C32" s="488"/>
+      <c r="D32" s="489"/>
       <c r="E32" s="278"/>
       <c r="F32" s="279"/>
       <c r="G32" s="279"/>
@@ -27470,7 +27512,7 @@
       <c r="AU32" s="438"/>
       <c r="AV32" s="439"/>
     </row>
-    <row r="33" spans="1:48" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A33" s="216">
         <v>31</v>
       </c>
@@ -27759,6 +27801,11 @@
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="W20:X20"/>
     <mergeCell ref="AU21:AV21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AM21:AN21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="O22:P22"/>
@@ -27768,11 +27815,6 @@
     <mergeCell ref="AE22:AF22"/>
     <mergeCell ref="AI22:AJ22"/>
     <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AM21:AN21"/>
     <mergeCell ref="AQ21:AR21"/>
     <mergeCell ref="AU22:AV22"/>
     <mergeCell ref="AQ23:AR23"/>
@@ -27905,6 +27947,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Standard Document" ma:contentTypeID="0x0101003D18CFE4CE879945945E15174BB87C55010058D94C312A5EE844992CD6D5A9B53C2F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11bab467b5f1bccc38addecb0f3a7e9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="d54d9bed-6018-4df3-b559-1354fc4e1c67" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73d433cefdbcd473e900381d741c708b" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -28092,7 +28143,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -28107,16 +28158,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA64451A-5347-46A7-9D2A-54BC6BFD7342}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3727132-A55E-4DB2-8207-639466DECDA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28137,7 +28187,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160F114C-0D09-4A31-98D5-95A52E742453}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -28149,12 +28199,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA64451A-5347-46A7-9D2A-54BC6BFD7342}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>